--- a/db/datashift/templates/porthos_products.xlsx
+++ b/db/datashift/templates/porthos_products.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="28500" windowHeight="16760" tabRatio="500"/>
+    <workbookView xWindow="6700" yWindow="0" windowWidth="44160" windowHeight="20520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="porthos_products.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="653">
   <si>
     <t>SKU</t>
   </si>
@@ -1327,6 +1327,657 @@
   </si>
   <si>
     <t>XIAN003B BLK|XIAN003B ORG</t>
+  </si>
+  <si>
+    <t>CB004C</t>
+  </si>
+  <si>
+    <t>3-drawer End Table</t>
+  </si>
+  <si>
+    <t>color:BLK,ORG,WHT</t>
+  </si>
+  <si>
+    <t>CB004C BLK|CB004C ORG|CB004C WHT|</t>
+  </si>
+  <si>
+    <t>CB004D</t>
+  </si>
+  <si>
+    <t>Wood 4-drawer End Table</t>
+  </si>
+  <si>
+    <t>CB004D BLK|CB004D ORG|</t>
+  </si>
+  <si>
+    <t>CB016A</t>
+  </si>
+  <si>
+    <t>Vintage Mong Console</t>
+  </si>
+  <si>
+    <t>CB016A NAT|</t>
+  </si>
+  <si>
+    <t>CB016B</t>
+  </si>
+  <si>
+    <t>CB016B BLK|</t>
+  </si>
+  <si>
+    <t>CB016C</t>
+  </si>
+  <si>
+    <t>Helene Accent Console</t>
+  </si>
+  <si>
+    <t>color:AQU,BLK</t>
+  </si>
+  <si>
+    <t>CB016C AQU|CB016C BLK|</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 220.99|196.99 </t>
+  </si>
+  <si>
+    <t>CB019A</t>
+  </si>
+  <si>
+    <t>Cathay Storage Cabinet</t>
+  </si>
+  <si>
+    <t>color:BLK,NAT,RED</t>
+  </si>
+  <si>
+    <t>CB019A BLK|CB019A NAT|CB019A RED|</t>
+  </si>
+  <si>
+    <t>CB036B</t>
+  </si>
+  <si>
+    <t>Tibetan Style Tea Cabinet</t>
+  </si>
+  <si>
+    <t>CB036B DSN|</t>
+  </si>
+  <si>
+    <t>CB060A</t>
+  </si>
+  <si>
+    <t>Dongbei-Style Cabinet</t>
+  </si>
+  <si>
+    <t>CB060A NAT|</t>
+  </si>
+  <si>
+    <t>CB060B</t>
+  </si>
+  <si>
+    <t>Dongbei Wood Cabinet</t>
+  </si>
+  <si>
+    <t>CB060B NAT|</t>
+  </si>
+  <si>
+    <t>CB081A</t>
+  </si>
+  <si>
+    <t>Wooden Petit Console Table</t>
+  </si>
+  <si>
+    <t>color:BLK,NAT,ORG,TQS,WHT</t>
+  </si>
+  <si>
+    <t>CB081A BLK|CB081A NAT|CB081A ORG|CB081A TQS|CB081A WHT|</t>
+  </si>
+  <si>
+    <t>CB082A</t>
+  </si>
+  <si>
+    <t>Vintage Wooden Dinner Table</t>
+  </si>
+  <si>
+    <t>CB082A NAT|</t>
+  </si>
+  <si>
+    <t>CB084A</t>
+  </si>
+  <si>
+    <t>Vintage Side Table</t>
+  </si>
+  <si>
+    <t>CB084A NAT|</t>
+  </si>
+  <si>
+    <t>CB084B</t>
+  </si>
+  <si>
+    <t>Rustic Elm Coffee Table</t>
+  </si>
+  <si>
+    <t>CB084B NAT|</t>
+  </si>
+  <si>
+    <t>CB088A</t>
+  </si>
+  <si>
+    <t>Chauvet Wine Cabinet</t>
+  </si>
+  <si>
+    <t>color:AQU,ORG,WHT</t>
+  </si>
+  <si>
+    <t>CB088A AQU|CB088A ORG|CB088A WHT|</t>
+  </si>
+  <si>
+    <t>CB101A</t>
+  </si>
+  <si>
+    <t>2-Door Walnut Display Cabinet</t>
+  </si>
+  <si>
+    <t>CB101A NAT|</t>
+  </si>
+  <si>
+    <t>CB102A</t>
+  </si>
+  <si>
+    <t>Country-Style Display Cabinet</t>
+  </si>
+  <si>
+    <t>color:NAT,TQS,WHT</t>
+  </si>
+  <si>
+    <t>CB102A NAT|CB102A TQS|CB102A WHT|</t>
+  </si>
+  <si>
+    <t>CB106A</t>
+  </si>
+  <si>
+    <t>Small Sidetable With Wide Drawer</t>
+  </si>
+  <si>
+    <t>CB106A BLK|CB106A NAT|</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 251.99|268.99 </t>
+  </si>
+  <si>
+    <t>CB106B</t>
+  </si>
+  <si>
+    <t>Small One-Drawer Nightstand</t>
+  </si>
+  <si>
+    <t>CB106B BLK|CB106B NAT|</t>
+  </si>
+  <si>
+    <t>CB107A</t>
+  </si>
+  <si>
+    <t>June Wooden Nightstand with Top Drawer</t>
+  </si>
+  <si>
+    <t>CB107A BLK|CB107A NAT|</t>
+  </si>
+  <si>
+    <t>CB107B</t>
+  </si>
+  <si>
+    <t>Jullien Wood Sideboard</t>
+  </si>
+  <si>
+    <t>CB107B BLK|CB107B NAT|</t>
+  </si>
+  <si>
+    <t>CB124A</t>
+  </si>
+  <si>
+    <t>Porthos Home Cranston Mid-century Modern Tapered Leg Wood Nightstand</t>
+  </si>
+  <si>
+    <t>color:AQU,BLK,ORG,WHT</t>
+  </si>
+  <si>
+    <t>CB124A AQU|CB124A BLK|CB124A ORG|CB124A WHT|</t>
+  </si>
+  <si>
+    <t>CB124B</t>
+  </si>
+  <si>
+    <t>Porthos Home Antique Rivival Petra Lacquer Nightstand</t>
+  </si>
+  <si>
+    <t>CB124B AQU|CB124B BLK|CB124B ORG|CB124B WHT|</t>
+  </si>
+  <si>
+    <t>CB126A</t>
+  </si>
+  <si>
+    <t>Porthos Home Bistre Distressed Nightstand</t>
+  </si>
+  <si>
+    <t>color:AQU,BLK,NAT</t>
+  </si>
+  <si>
+    <t>CB126A AQU|CB126A BLK|CB126A NAT|</t>
+  </si>
+  <si>
+    <t>color:AQU,BLK,NAT,WHT</t>
+  </si>
+  <si>
+    <t>color:AQU,BLK,NAT,ORG,WHT</t>
+  </si>
+  <si>
+    <t>color:AQU,BLK,WHT</t>
+  </si>
+  <si>
+    <t>CB129A</t>
+  </si>
+  <si>
+    <t>Valery Side Table</t>
+  </si>
+  <si>
+    <t>CB129A AQU|CB129A BLK|CB129A WHT|</t>
+  </si>
+  <si>
+    <t>CB130A</t>
+  </si>
+  <si>
+    <t>Antonio Natural Wood Dresser</t>
+  </si>
+  <si>
+    <t>CB130A AQU|CB130A BLK|CB130A NAT|</t>
+  </si>
+  <si>
+    <t>CB130B</t>
+  </si>
+  <si>
+    <t>Satune Dresser</t>
+  </si>
+  <si>
+    <t>CB130B AQU|CB130B BLK|CB130B NAT|</t>
+  </si>
+  <si>
+    <t>CB131A</t>
+  </si>
+  <si>
+    <t>Porthos Home Evilly Side Table</t>
+  </si>
+  <si>
+    <t>CB131A AQU|CB131A BLK|CB131A NAT|CB131A WHT|</t>
+  </si>
+  <si>
+    <t>CB131B</t>
+  </si>
+  <si>
+    <t>Porthos Home Mikayla Display Shelf</t>
+  </si>
+  <si>
+    <t>CB131B AQU|CB131B BLK|CB131B NAT|CB131B ORG|CB131B WHT</t>
+  </si>
+  <si>
+    <t>CB133A</t>
+  </si>
+  <si>
+    <t>Crosshatch Bookcase</t>
+  </si>
+  <si>
+    <t>CB133A NAT|</t>
+  </si>
+  <si>
+    <t>CB136A</t>
+  </si>
+  <si>
+    <t>Abigail Side Table</t>
+  </si>
+  <si>
+    <t>color:AQU,WHT</t>
+  </si>
+  <si>
+    <t>CB136A AQU|CB136A WHT|</t>
+  </si>
+  <si>
+    <t>CB136B</t>
+  </si>
+  <si>
+    <t>Zachary Side Table</t>
+  </si>
+  <si>
+    <t>CB136B AQU|CB136B BLK|CB136B ORG|CB136B WHT|</t>
+  </si>
+  <si>
+    <t>CB137A</t>
+  </si>
+  <si>
+    <t>Eva Side Table</t>
+  </si>
+  <si>
+    <t>CB137A NAT|</t>
+  </si>
+  <si>
+    <t>CB137B</t>
+  </si>
+  <si>
+    <t>Evan Side Table</t>
+  </si>
+  <si>
+    <t>CB137B NAT|</t>
+  </si>
+  <si>
+    <t>CB137C</t>
+  </si>
+  <si>
+    <t>Gregory Side Table</t>
+  </si>
+  <si>
+    <t>CB137C NAT|</t>
+  </si>
+  <si>
+    <t>CB137D</t>
+  </si>
+  <si>
+    <t>Martin Side Table</t>
+  </si>
+  <si>
+    <t>CB137D NAT|</t>
+  </si>
+  <si>
+    <t>color:AQU,BLK,NAT,RED,WHT</t>
+  </si>
+  <si>
+    <t>color:BLK,NAT,WHT</t>
+  </si>
+  <si>
+    <t>CH002A</t>
+  </si>
+  <si>
+    <t>Dark Wood Chinese-style Stool</t>
+  </si>
+  <si>
+    <t>CH002A NAT|</t>
+  </si>
+  <si>
+    <t>CH002B</t>
+  </si>
+  <si>
+    <t>Vintage Chinese-style Round Kid's Stool</t>
+  </si>
+  <si>
+    <t>CH002B NAT|</t>
+  </si>
+  <si>
+    <t>CH002C</t>
+  </si>
+  <si>
+    <t>Bench Style Riser</t>
+  </si>
+  <si>
+    <t>CH002C NAT|CH002C WHT</t>
+  </si>
+  <si>
+    <t>CH002D</t>
+  </si>
+  <si>
+    <t>Vintage Chinese Theater Stool</t>
+  </si>
+  <si>
+    <t>color:BUT,NAT</t>
+  </si>
+  <si>
+    <t>CH002D BUT|CH002D NAT</t>
+  </si>
+  <si>
+    <t>CH002R</t>
+  </si>
+  <si>
+    <t>CH002R NAT|</t>
+  </si>
+  <si>
+    <t>CH003A</t>
+  </si>
+  <si>
+    <t>Vintage Country Stool</t>
+  </si>
+  <si>
+    <t>CH003A NAT|</t>
+  </si>
+  <si>
+    <t>CH003D</t>
+  </si>
+  <si>
+    <t>Newton Round Stool</t>
+  </si>
+  <si>
+    <t>color:BUT,RED,WHT</t>
+  </si>
+  <si>
+    <t>CH003D BUT|CH003D RED|CH003D WHT</t>
+  </si>
+  <si>
+    <t>CH004C</t>
+  </si>
+  <si>
+    <t>Vintage Targon Side Table</t>
+  </si>
+  <si>
+    <t>CH004C NAT|</t>
+  </si>
+  <si>
+    <t>CH004D</t>
+  </si>
+  <si>
+    <t>Chinese Riser Stand</t>
+  </si>
+  <si>
+    <t>color:AQU,NAT,RED</t>
+  </si>
+  <si>
+    <t>CH004D AQU|CH004D NAT|CH004D RED</t>
+  </si>
+  <si>
+    <t>CH010A</t>
+  </si>
+  <si>
+    <t>Countryside Forked Bench</t>
+  </si>
+  <si>
+    <t>CH010A AQU|CH010A BLK|CH010A NAT|CH010A RED|CH010A WHT</t>
+  </si>
+  <si>
+    <t>CH011A</t>
+  </si>
+  <si>
+    <t>Menqi Long Wooden Bench</t>
+  </si>
+  <si>
+    <t>CH011A BLK|CH011A NAT</t>
+  </si>
+  <si>
+    <t>CH011B</t>
+  </si>
+  <si>
+    <t>Shanghai Style Vintage Bench</t>
+  </si>
+  <si>
+    <t>CH011B NAT|</t>
+  </si>
+  <si>
+    <t>CH012A</t>
+  </si>
+  <si>
+    <t>Vintage Chinese Chair</t>
+  </si>
+  <si>
+    <t>CH012A NAT|</t>
+  </si>
+  <si>
+    <t>CH017A</t>
+  </si>
+  <si>
+    <t>Vintage Nabe Drum</t>
+  </si>
+  <si>
+    <t>color:BLK,RED;size:M</t>
+  </si>
+  <si>
+    <t>CH017A M BLK|CH017A M RED</t>
+  </si>
+  <si>
+    <t>CH017E</t>
+  </si>
+  <si>
+    <t>Handmade Chinese Vintage Style Drum Stool</t>
+  </si>
+  <si>
+    <t>CH017E BLK|CH017E RED</t>
+  </si>
+  <si>
+    <t>CH020A</t>
+  </si>
+  <si>
+    <t>Lilliputian Wooden Stool</t>
+  </si>
+  <si>
+    <t>color:NAT,RED</t>
+  </si>
+  <si>
+    <t>CH020A NAT|CH020A RED</t>
+  </si>
+  <si>
+    <t>CH022A</t>
+  </si>
+  <si>
+    <t>Roma Country Style Riser</t>
+  </si>
+  <si>
+    <t>CH022A AQU|CH022A WHT</t>
+  </si>
+  <si>
+    <t>CH024A</t>
+  </si>
+  <si>
+    <t>Dynasty Leisure Seat</t>
+  </si>
+  <si>
+    <t>color:AQU,ORG</t>
+  </si>
+  <si>
+    <t>CH024A AQU|CH024A ORG</t>
+  </si>
+  <si>
+    <t>CH025A</t>
+  </si>
+  <si>
+    <t>Valery End Table</t>
+  </si>
+  <si>
+    <t>color:BLK,TQS</t>
+  </si>
+  <si>
+    <t>CH025A BLK|CH025A TQS</t>
+  </si>
+  <si>
+    <t>CH025B</t>
+  </si>
+  <si>
+    <t>Pinnacle Display Stand</t>
+  </si>
+  <si>
+    <t>CH025B BLK|CH025B TQS</t>
+  </si>
+  <si>
+    <t>CH026A</t>
+  </si>
+  <si>
+    <t>Osaka End Table</t>
+  </si>
+  <si>
+    <t>CH026A AQU|CH026A NAT|CH026A RED</t>
+  </si>
+  <si>
+    <t>48.99|42.99|35.99</t>
+  </si>
+  <si>
+    <t>CH027A</t>
+  </si>
+  <si>
+    <t>Maokai Distressed Accent Bench</t>
+  </si>
+  <si>
+    <t>CH027A BLK|CH027A BLU</t>
+  </si>
+  <si>
+    <t>CH028A</t>
+  </si>
+  <si>
+    <t>Monroe Adjustable Modern Bar Stool</t>
+  </si>
+  <si>
+    <t>CH028A BLK|</t>
+  </si>
+  <si>
+    <t>CH030A</t>
+  </si>
+  <si>
+    <t>Porthos Home Antique Revival Bobby Stool</t>
+  </si>
+  <si>
+    <t>color:RED,TQS,WHT</t>
+  </si>
+  <si>
+    <t>CH030A RED|CH030A TQS|CH030A WHT</t>
+  </si>
+  <si>
+    <t>29.99|30.99|30.99</t>
+  </si>
+  <si>
+    <t>CH030B</t>
+  </si>
+  <si>
+    <t>Porthos Home Andy's Stool</t>
+  </si>
+  <si>
+    <t>CH030B RED|CH030B TQS|CH030B WHT</t>
+  </si>
+  <si>
+    <t>CH030C</t>
+  </si>
+  <si>
+    <t>Porthos Home Brayden Stool</t>
+  </si>
+  <si>
+    <t>CH030C RED|CH030C TQS|CH030C WHT</t>
+  </si>
+  <si>
+    <t>45.99|51.99|45.99</t>
+  </si>
+  <si>
+    <t>CH031A</t>
+  </si>
+  <si>
+    <t>Camille Chinese Inspired Lacquer Side Table</t>
+  </si>
+  <si>
+    <t>CH031A BLK|CH031A WHT</t>
+  </si>
+  <si>
+    <t>CH031B</t>
+  </si>
+  <si>
+    <t>Pearl Chinese Inspired Lacquer Side Table</t>
+  </si>
+  <si>
+    <t>CH031B BLK|CH031B WHT</t>
+  </si>
+  <si>
+    <t>CH060A</t>
+  </si>
+  <si>
+    <t>Porthos Home Elyse Side Table</t>
+  </si>
+  <si>
+    <t>CH060A BLK|CH060A NAT|CH060A WHT</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1987,26 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1362,14 +2029,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1699,17 +2378,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="4" width="46.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1737,789 +2419,789 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>436</v>
       </c>
       <c r="B2" s="1">
-        <v>20.99</v>
+        <v>218.99</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>437</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>438</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>439</v>
       </c>
       <c r="G2" s="1">
-        <v>20.99</v>
+        <v>218.99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>440</v>
       </c>
       <c r="B3" s="1">
-        <v>41.99</v>
+        <v>161.99</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>441</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>293</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>442</v>
       </c>
       <c r="G3" s="1">
-        <v>41.99</v>
+        <v>161.99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>443</v>
       </c>
       <c r="B4" s="1">
-        <v>257.99</v>
+        <v>220.99</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>444</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>445</v>
       </c>
       <c r="G4" s="1">
-        <v>257.99</v>
+        <v>220.99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>446</v>
       </c>
       <c r="B5" s="1">
-        <v>257.99</v>
+        <v>220.99</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>447</v>
       </c>
       <c r="G5" s="1">
-        <v>257.99</v>
+        <v>220.99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>448</v>
       </c>
       <c r="B6" s="1">
-        <v>131.99</v>
+        <v>220.99</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>449</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1">
-        <v>131.99</v>
+        <v>451</v>
+      </c>
+      <c r="G6" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>453</v>
       </c>
       <c r="B7" s="1">
-        <v>152.99</v>
+        <v>251.99</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>454</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>455</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>456</v>
       </c>
       <c r="G7" s="1">
-        <v>152.99</v>
+        <v>251.99</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>457</v>
       </c>
       <c r="B8" s="1">
-        <v>80.989999999999995</v>
+        <v>293.99</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>458</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>459</v>
       </c>
       <c r="G8" s="1">
-        <v>80.989999999999995</v>
+        <v>293.99</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>460</v>
       </c>
       <c r="B9" s="1">
-        <v>295.99</v>
+        <v>235.99</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>461</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>462</v>
       </c>
       <c r="G9" s="1">
-        <v>295.99</v>
+        <v>235.99</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>463</v>
       </c>
       <c r="B10" s="1">
-        <v>148.99</v>
+        <v>251.99</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>464</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>465</v>
       </c>
       <c r="G10" s="1">
-        <v>148.99</v>
+        <v>251.99</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>466</v>
       </c>
       <c r="B11" s="1">
-        <v>338.99</v>
+        <v>278.99</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>467</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>468</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>469</v>
       </c>
       <c r="G11" s="1">
-        <v>338.99</v>
+        <v>278.99</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>470</v>
       </c>
       <c r="B12" s="1">
-        <v>111.99</v>
+        <v>446.99</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>471</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>472</v>
       </c>
       <c r="G12" s="1">
-        <v>111.99</v>
+        <v>446.99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>473</v>
       </c>
       <c r="B13" s="1">
-        <v>76.989999999999995</v>
+        <v>246.99</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>474</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>475</v>
       </c>
       <c r="G13" s="1">
-        <v>76.989999999999995</v>
+        <v>246.99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>476</v>
       </c>
       <c r="B14" s="1">
-        <v>185.99</v>
+        <v>317.99</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>477</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>478</v>
       </c>
       <c r="G14" s="1">
-        <v>185.99</v>
+        <v>317.99</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>479</v>
       </c>
       <c r="B15" s="1">
-        <v>121.99</v>
+        <v>141.99</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>480</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>481</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>482</v>
       </c>
       <c r="G15" s="1">
-        <v>121.99</v>
+        <v>141.99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>483</v>
       </c>
       <c r="B16" s="1">
-        <v>131.99</v>
+        <v>277.99</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>484</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>485</v>
       </c>
       <c r="G16" s="1">
-        <v>131.99</v>
+        <v>277.99</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>486</v>
       </c>
       <c r="B17" s="1">
-        <v>70.989999999999995</v>
+        <v>200.99</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>487</v>
       </c>
       <c r="E17" t="s">
-        <v>64</v>
+        <v>488</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>489</v>
       </c>
       <c r="G17" s="1">
-        <v>70.989999999999995</v>
+        <v>200.99</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>490</v>
       </c>
       <c r="B18" s="1">
-        <v>274.99</v>
+        <v>251.99</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>491</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="1">
-        <v>274.99</v>
+        <v>492</v>
+      </c>
+      <c r="G18" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>494</v>
       </c>
       <c r="B19" s="1">
-        <v>192.99</v>
+        <v>218.99</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>495</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>496</v>
       </c>
       <c r="G19" s="1">
-        <v>192.99</v>
+        <v>218.99</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>497</v>
       </c>
       <c r="B20" s="1">
-        <v>192.99</v>
+        <v>147.99</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>498</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>76</v>
+        <v>499</v>
       </c>
       <c r="G20" s="1">
-        <v>192.99</v>
+        <v>147.99</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>500</v>
       </c>
       <c r="B21" s="1">
-        <v>293.99</v>
+        <v>403.99</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>501</v>
       </c>
       <c r="E21" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>502</v>
       </c>
       <c r="G21" s="1">
-        <v>293.99</v>
+        <v>403.99</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>503</v>
       </c>
       <c r="B22" s="1">
-        <v>293.99</v>
+        <v>232.99</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>504</v>
       </c>
       <c r="E22" t="s">
-        <v>75</v>
+        <v>505</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>506</v>
       </c>
       <c r="G22" s="1">
-        <v>293.99</v>
+        <v>232.99</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>507</v>
       </c>
       <c r="B23" s="1">
-        <v>63.99</v>
+        <v>231.99</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>508</v>
       </c>
       <c r="E23" t="s">
-        <v>86</v>
+        <v>505</v>
       </c>
       <c r="F23" t="s">
-        <v>87</v>
+        <v>509</v>
       </c>
       <c r="G23" s="1">
-        <v>63.99</v>
+        <v>231.99</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>510</v>
       </c>
       <c r="B24" s="1">
-        <v>98.99</v>
+        <v>158.99</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>511</v>
       </c>
       <c r="E24" t="s">
-        <v>90</v>
+        <v>512</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>513</v>
       </c>
       <c r="G24" s="1">
-        <v>98.99</v>
+        <v>158.99</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>517</v>
       </c>
       <c r="B25" s="1">
-        <v>112.99</v>
+        <v>120.99</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>518</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>516</v>
       </c>
       <c r="F25" t="s">
-        <v>95</v>
+        <v>519</v>
       </c>
       <c r="G25" s="1">
-        <v>112.99</v>
+        <v>120.99</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>520</v>
       </c>
       <c r="B26" s="1">
-        <v>227.99</v>
+        <v>193.99</v>
       </c>
       <c r="C26" t="s">
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>521</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>512</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>522</v>
       </c>
       <c r="G26" s="1">
-        <v>227.99</v>
+        <v>193.99</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>523</v>
       </c>
       <c r="B27" s="1">
-        <v>114.99</v>
+        <v>232.99</v>
       </c>
       <c r="C27" t="s">
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>101</v>
+        <v>524</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>512</v>
       </c>
       <c r="F27" t="s">
-        <v>102</v>
+        <v>525</v>
       </c>
       <c r="G27" s="1">
-        <v>114.99</v>
+        <v>232.99</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>526</v>
       </c>
       <c r="B28" s="1">
-        <v>91.99</v>
+        <v>196.99</v>
       </c>
       <c r="C28" t="s">
         <v>8</v>
       </c>
       <c r="D28" t="s">
-        <v>104</v>
+        <v>527</v>
       </c>
       <c r="E28" t="s">
-        <v>105</v>
+        <v>514</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
+        <v>528</v>
       </c>
       <c r="G28" s="1">
-        <v>91.99</v>
+        <v>196.99</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>107</v>
+        <v>529</v>
       </c>
       <c r="B29" s="1">
-        <v>62.99</v>
+        <v>226.99</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>530</v>
       </c>
       <c r="E29" t="s">
-        <v>109</v>
+        <v>515</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>531</v>
       </c>
       <c r="G29" s="1">
-        <v>62.99</v>
+        <v>226.99</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>111</v>
+        <v>532</v>
       </c>
       <c r="B30" s="1">
-        <v>83.99</v>
+        <v>197.99</v>
       </c>
       <c r="C30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>533</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F30" t="s">
-        <v>113</v>
+        <v>534</v>
       </c>
       <c r="G30" s="1">
-        <v>83.99</v>
+        <v>197.99</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>535</v>
       </c>
       <c r="B31" s="1">
-        <v>56.99</v>
+        <v>168.99</v>
       </c>
       <c r="C31" t="s">
         <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>536</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>537</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>538</v>
       </c>
       <c r="G31" s="1">
-        <v>56.99</v>
+        <v>168.99</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>539</v>
       </c>
       <c r="B32" s="1">
-        <v>83.99</v>
+        <v>167.99</v>
       </c>
       <c r="C32" t="s">
         <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>540</v>
       </c>
       <c r="E32" t="s">
-        <v>109</v>
+        <v>505</v>
       </c>
       <c r="F32" t="s">
-        <v>119</v>
+        <v>541</v>
       </c>
       <c r="G32" s="1">
-        <v>83.99</v>
+        <v>167.99</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>542</v>
       </c>
       <c r="B33" s="1">
-        <v>174.99</v>
+        <v>93.99</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>543</v>
       </c>
       <c r="E33" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>544</v>
       </c>
       <c r="G33" s="1">
-        <v>174.99</v>
+        <v>93.99</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>545</v>
       </c>
       <c r="B34" s="1">
-        <v>83.99</v>
+        <v>100.99</v>
       </c>
       <c r="C34" t="s">
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>546</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="F34" t="s">
-        <v>126</v>
+        <v>547</v>
       </c>
       <c r="G34" s="1">
-        <v>83.99</v>
+        <v>100.99</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>127</v>
+        <v>548</v>
       </c>
       <c r="B35" s="1">
-        <v>157.99</v>
+        <v>118.99</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>549</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F35" t="s">
-        <v>130</v>
+        <v>550</v>
       </c>
       <c r="G35" s="1">
-        <v>157.99</v>
+        <v>118.99</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>131</v>
+        <v>551</v>
       </c>
       <c r="B36" s="1">
         <v>89.99</v>
@@ -2528,13 +3210,13 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>132</v>
+        <v>552</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>139</v>
       </c>
       <c r="F36" t="s">
-        <v>133</v>
+        <v>553</v>
       </c>
       <c r="G36" s="1">
         <v>89.99</v>
@@ -2542,559 +3224,559 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>556</v>
       </c>
       <c r="B37" s="1">
-        <v>96.99</v>
+        <v>52.99</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>557</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="F37" t="s">
-        <v>136</v>
+        <v>558</v>
       </c>
       <c r="G37" s="1">
-        <v>96.99</v>
+        <v>52.99</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>559</v>
       </c>
       <c r="B38" s="1">
-        <v>139.99</v>
+        <v>23.99</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>560</v>
       </c>
       <c r="E38" t="s">
         <v>139</v>
       </c>
       <c r="F38" t="s">
-        <v>140</v>
+        <v>561</v>
       </c>
       <c r="G38" s="1">
-        <v>139.99</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>562</v>
       </c>
       <c r="B39" s="1">
-        <v>145.99</v>
+        <v>24.99</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>142</v>
+        <v>563</v>
       </c>
       <c r="E39" t="s">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>564</v>
       </c>
       <c r="G39" s="1">
-        <v>145.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>145</v>
+        <v>565</v>
       </c>
       <c r="B40" s="1">
-        <v>120.99</v>
+        <v>40.99</v>
       </c>
       <c r="C40" t="s">
         <v>8</v>
       </c>
       <c r="D40" t="s">
-        <v>146</v>
+        <v>566</v>
       </c>
       <c r="E40" t="s">
-        <v>143</v>
+        <v>567</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
+        <v>568</v>
       </c>
       <c r="G40" s="1">
-        <v>120.99</v>
+        <v>40.99</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>148</v>
+        <v>569</v>
       </c>
       <c r="B41" s="1">
-        <v>169.99</v>
+        <v>24.99</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>149</v>
+        <v>563</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>570</v>
       </c>
       <c r="G41" s="1">
-        <v>169.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>151</v>
+        <v>571</v>
       </c>
       <c r="B42" s="1">
-        <v>134.99</v>
+        <v>58.99</v>
       </c>
       <c r="C42" t="s">
         <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>152</v>
+        <v>572</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F42" t="s">
-        <v>153</v>
+        <v>573</v>
       </c>
       <c r="G42" s="1">
-        <v>134.99</v>
+        <v>58.99</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>574</v>
       </c>
       <c r="B43" s="1">
-        <v>58.99</v>
+        <v>66.989999999999995</v>
       </c>
       <c r="C43" t="s">
         <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>575</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>576</v>
       </c>
       <c r="F43" t="s">
-        <v>156</v>
+        <v>577</v>
       </c>
       <c r="G43" s="1">
-        <v>58.99</v>
+        <v>66.989999999999995</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>157</v>
+        <v>578</v>
       </c>
       <c r="B44" s="1">
-        <v>70.989999999999995</v>
+        <v>120.99</v>
       </c>
       <c r="C44" t="s">
         <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>579</v>
       </c>
       <c r="E44" t="s">
         <v>139</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>580</v>
       </c>
       <c r="G44" s="1">
-        <v>70.989999999999995</v>
+        <v>120.99</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>160</v>
+        <v>581</v>
       </c>
       <c r="B45" s="1">
-        <v>63.99</v>
+        <v>118.99</v>
       </c>
       <c r="C45" t="s">
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>582</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>583</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>584</v>
       </c>
       <c r="G45" s="1">
-        <v>63.99</v>
+        <v>118.99</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>585</v>
       </c>
       <c r="B46" s="1">
-        <v>79.989999999999995</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="C46" t="s">
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>586</v>
       </c>
       <c r="E46" t="s">
-        <v>109</v>
+        <v>554</v>
       </c>
       <c r="F46" t="s">
-        <v>166</v>
+        <v>587</v>
       </c>
       <c r="G46" s="1">
-        <v>79.989999999999995</v>
+        <v>73.989999999999995</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>588</v>
       </c>
       <c r="B47" s="1">
-        <v>97.99</v>
+        <v>200.99</v>
       </c>
       <c r="C47" t="s">
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>168</v>
+        <v>589</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>169</v>
+        <v>590</v>
       </c>
       <c r="G47" s="1">
-        <v>97.99</v>
+        <v>200.99</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>170</v>
+        <v>591</v>
       </c>
       <c r="B48" s="1">
-        <v>83.99</v>
+        <v>97.99</v>
       </c>
       <c r="C48" t="s">
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>171</v>
+        <v>592</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>593</v>
       </c>
       <c r="G48" s="1">
-        <v>83.99</v>
+        <v>97.99</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>594</v>
       </c>
       <c r="B49" s="1">
-        <v>120.99</v>
+        <v>70.989999999999995</v>
       </c>
       <c r="C49" t="s">
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>595</v>
       </c>
       <c r="E49" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F49" t="s">
-        <v>175</v>
+        <v>596</v>
       </c>
       <c r="G49" s="1">
-        <v>120.99</v>
+        <v>70.989999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>176</v>
+        <v>597</v>
       </c>
       <c r="B50" s="1">
-        <v>84.99</v>
+        <v>503.99</v>
       </c>
       <c r="C50" t="s">
         <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>598</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>599</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>600</v>
       </c>
       <c r="G50" s="1">
-        <v>84.99</v>
+        <v>503.99</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>601</v>
       </c>
       <c r="B51" s="1">
-        <v>75.989999999999995</v>
+        <v>369.99</v>
       </c>
       <c r="C51" t="s">
         <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>180</v>
+        <v>602</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>273</v>
       </c>
       <c r="F51" t="s">
-        <v>181</v>
+        <v>603</v>
       </c>
       <c r="G51" s="1">
-        <v>75.989999999999995</v>
+        <v>369.99</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>182</v>
+        <v>604</v>
       </c>
       <c r="B52" s="1">
-        <v>83.99</v>
+        <v>26.99</v>
       </c>
       <c r="C52" t="s">
         <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>183</v>
+        <v>605</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>606</v>
       </c>
       <c r="F52" t="s">
-        <v>184</v>
+        <v>607</v>
       </c>
       <c r="G52" s="1">
-        <v>83.99</v>
+        <v>26.99</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>185</v>
+        <v>608</v>
       </c>
       <c r="B53" s="1">
-        <v>159.99</v>
+        <v>53.99</v>
       </c>
       <c r="C53" t="s">
         <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>609</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>537</v>
       </c>
       <c r="F53" t="s">
-        <v>187</v>
+        <v>610</v>
       </c>
       <c r="G53" s="1">
-        <v>159.99</v>
+        <v>53.99</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>611</v>
       </c>
       <c r="B54" s="1">
-        <v>99.99</v>
+        <v>235.99</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>612</v>
       </c>
       <c r="E54" t="s">
-        <v>109</v>
+        <v>613</v>
       </c>
       <c r="F54" t="s">
-        <v>190</v>
+        <v>614</v>
       </c>
       <c r="G54" s="1">
-        <v>99.99</v>
+        <v>235.99</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>615</v>
       </c>
       <c r="B55" s="1">
-        <v>47.99</v>
+        <v>176.99</v>
       </c>
       <c r="C55" t="s">
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>192</v>
+        <v>616</v>
       </c>
       <c r="E55" t="s">
-        <v>86</v>
+        <v>617</v>
       </c>
       <c r="F55" t="s">
-        <v>193</v>
+        <v>618</v>
       </c>
       <c r="G55" s="1">
-        <v>47.99</v>
+        <v>176.99</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>194</v>
+        <v>619</v>
       </c>
       <c r="B56" s="1">
-        <v>47.99</v>
+        <v>281.99</v>
       </c>
       <c r="C56" t="s">
         <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>195</v>
+        <v>620</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>617</v>
       </c>
       <c r="F56" t="s">
-        <v>196</v>
+        <v>621</v>
       </c>
       <c r="G56" s="1">
-        <v>47.99</v>
+        <v>281.99</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>197</v>
+        <v>622</v>
       </c>
       <c r="B57" s="1">
-        <v>23.99</v>
+        <v>48.99</v>
       </c>
       <c r="C57" t="s">
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>198</v>
+        <v>623</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>583</v>
       </c>
       <c r="F57" t="s">
-        <v>199</v>
-      </c>
-      <c r="G57" s="1">
-        <v>23.99</v>
+        <v>624</v>
+      </c>
+      <c r="G57" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>200</v>
+        <v>626</v>
       </c>
       <c r="B58" s="1">
-        <v>24.99</v>
+        <v>73.989999999999995</v>
       </c>
       <c r="C58" t="s">
         <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>201</v>
+        <v>627</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="F58" t="s">
-        <v>202</v>
+        <v>628</v>
       </c>
       <c r="G58" s="1">
-        <v>24.99</v>
+        <v>73.989999999999995</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>203</v>
+        <v>629</v>
       </c>
       <c r="B59" s="1">
-        <v>28.99</v>
+        <v>127.99</v>
       </c>
       <c r="C59" t="s">
         <v>8</v>
       </c>
       <c r="D59" t="s">
-        <v>204</v>
+        <v>630</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
+        <v>631</v>
       </c>
       <c r="G59" s="1">
-        <v>28.99</v>
+        <v>127.99</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>206</v>
+        <v>632</v>
       </c>
       <c r="B60" s="1">
-        <v>68.989999999999995</v>
+        <v>29.99</v>
       </c>
       <c r="C60" t="s">
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>207</v>
+        <v>633</v>
       </c>
       <c r="E60" t="s">
-        <v>109</v>
+        <v>634</v>
       </c>
       <c r="F60" t="s">
-        <v>208</v>
-      </c>
-      <c r="G60" s="1">
-        <v>68.989999999999995</v>
+        <v>635</v>
+      </c>
+      <c r="G60" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>637</v>
       </c>
       <c r="B61" s="1">
         <v>41.99</v>
@@ -3103,13 +3785,13 @@
         <v>8</v>
       </c>
       <c r="D61" t="s">
-        <v>210</v>
+        <v>638</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>634</v>
       </c>
       <c r="F61" t="s">
-        <v>211</v>
+        <v>639</v>
       </c>
       <c r="G61" s="1">
         <v>41.99</v>
@@ -3117,122 +3799,122 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>212</v>
+        <v>640</v>
       </c>
       <c r="B62" s="1">
-        <v>31.99</v>
+        <v>45.99</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
       <c r="D62" t="s">
-        <v>213</v>
+        <v>641</v>
       </c>
       <c r="E62" t="s">
-        <v>162</v>
+        <v>634</v>
       </c>
       <c r="F62" t="s">
-        <v>214</v>
-      </c>
-      <c r="G62" s="1">
-        <v>31.99</v>
+        <v>642</v>
+      </c>
+      <c r="G62" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>644</v>
       </c>
       <c r="B63" s="1">
-        <v>97.99</v>
+        <v>96.99</v>
       </c>
       <c r="C63" t="s">
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>216</v>
+        <v>645</v>
       </c>
       <c r="E63" t="s">
         <v>30</v>
       </c>
       <c r="F63" t="s">
-        <v>217</v>
+        <v>646</v>
       </c>
       <c r="G63" s="1">
-        <v>97.99</v>
+        <v>96.99</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>647</v>
       </c>
       <c r="B64" s="1">
-        <v>100.99</v>
+        <v>96.99</v>
       </c>
       <c r="C64" t="s">
         <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>648</v>
       </c>
       <c r="E64" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>221</v>
+        <v>649</v>
       </c>
       <c r="G64" s="1">
-        <v>100.99</v>
+        <v>96.99</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>222</v>
+        <v>650</v>
       </c>
       <c r="B65" s="1">
-        <v>99.99</v>
+        <v>81.99</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>223</v>
+        <v>651</v>
       </c>
       <c r="E65" t="s">
-        <v>220</v>
+        <v>555</v>
       </c>
       <c r="F65" t="s">
-        <v>224</v>
+        <v>652</v>
       </c>
       <c r="G65" s="1">
-        <v>99.99</v>
+        <v>81.99</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>225</v>
+        <v>7</v>
       </c>
       <c r="B66" s="1">
-        <v>57.99</v>
+        <v>20.99</v>
       </c>
       <c r="C66" t="s">
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>9</v>
       </c>
       <c r="E66" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>227</v>
+        <v>11</v>
       </c>
       <c r="G66" s="1">
-        <v>57.99</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="B67" s="1">
         <v>41.99</v>
@@ -3241,13 +3923,13 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>229</v>
+        <v>13</v>
       </c>
       <c r="E67" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>230</v>
+        <v>14</v>
       </c>
       <c r="G67" s="1">
         <v>41.99</v>
@@ -3255,628 +3937,628 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>231</v>
+        <v>15</v>
       </c>
       <c r="B68" s="1">
-        <v>41.99</v>
+        <v>257.99</v>
       </c>
       <c r="C68" t="s">
         <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>220</v>
+        <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>233</v>
+        <v>17</v>
       </c>
       <c r="G68" s="1">
-        <v>41.99</v>
+        <v>257.99</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="B69" s="1">
-        <v>99.99</v>
+        <v>257.99</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>235</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="G69" s="1">
-        <v>99.99</v>
+        <v>257.99</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="B70" s="1">
-        <v>16.989999999999998</v>
+        <v>131.99</v>
       </c>
       <c r="C70" t="s">
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="E70" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>239</v>
-      </c>
-      <c r="G70" t="s">
-        <v>240</v>
+        <v>24</v>
+      </c>
+      <c r="G70" s="1">
+        <v>131.99</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>241</v>
+        <v>25</v>
       </c>
       <c r="B71" s="1">
-        <v>111.99</v>
+        <v>152.99</v>
       </c>
       <c r="C71" t="s">
         <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="F71" t="s">
-        <v>243</v>
+        <v>27</v>
       </c>
       <c r="G71" s="1">
-        <v>111.99</v>
+        <v>152.99</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>244</v>
+        <v>28</v>
       </c>
       <c r="B72" s="1">
-        <v>105.99</v>
+        <v>80.989999999999995</v>
       </c>
       <c r="C72" t="s">
         <v>8</v>
       </c>
       <c r="D72" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>246</v>
+        <v>31</v>
       </c>
       <c r="G72" s="1">
-        <v>105.99</v>
+        <v>80.989999999999995</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="B73" s="1">
-        <v>105.99</v>
+        <v>295.99</v>
       </c>
       <c r="C73" t="s">
         <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="E73" t="s">
-        <v>220</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>249</v>
+        <v>35</v>
       </c>
       <c r="G73" s="1">
-        <v>105.99</v>
+        <v>295.99</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>250</v>
+        <v>36</v>
       </c>
       <c r="B74" s="1">
-        <v>85.99</v>
+        <v>148.99</v>
       </c>
       <c r="C74" t="s">
         <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>251</v>
+        <v>37</v>
       </c>
       <c r="E74" t="s">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>252</v>
+        <v>39</v>
       </c>
       <c r="G74" s="1">
-        <v>85.99</v>
+        <v>148.99</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>253</v>
+        <v>40</v>
       </c>
       <c r="B75" s="1">
-        <v>85.99</v>
+        <v>338.99</v>
       </c>
       <c r="C75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>255</v>
+        <v>43</v>
       </c>
       <c r="G75" s="1">
-        <v>85.99</v>
+        <v>338.99</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>256</v>
+        <v>44</v>
       </c>
       <c r="B76" s="1">
-        <v>82.99</v>
+        <v>111.99</v>
       </c>
       <c r="C76" t="s">
         <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="F76" t="s">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="G76" s="1">
-        <v>82.99</v>
+        <v>111.99</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="B77" s="1">
-        <v>141.99</v>
+        <v>76.989999999999995</v>
       </c>
       <c r="C77" t="s">
         <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>260</v>
+        <v>49</v>
       </c>
       <c r="E77" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="F77" t="s">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c r="G77" s="1">
-        <v>141.99</v>
+        <v>76.989999999999995</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>262</v>
+        <v>52</v>
       </c>
       <c r="B78" s="1">
-        <v>152.99</v>
+        <v>185.99</v>
       </c>
       <c r="C78" t="s">
         <v>8</v>
       </c>
       <c r="D78" t="s">
-        <v>263</v>
+        <v>53</v>
       </c>
       <c r="E78" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="F78" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="G78" s="1">
-        <v>152.99</v>
+        <v>185.99</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>265</v>
+        <v>55</v>
       </c>
       <c r="B79" s="1">
-        <v>149.99</v>
+        <v>121.99</v>
       </c>
       <c r="C79" t="s">
         <v>8</v>
       </c>
       <c r="D79" t="s">
-        <v>266</v>
+        <v>56</v>
       </c>
       <c r="E79" t="s">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="F79" t="s">
-        <v>267</v>
+        <v>58</v>
       </c>
       <c r="G79" s="1">
-        <v>149.99</v>
+        <v>121.99</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>268</v>
+        <v>59</v>
       </c>
       <c r="B80" s="1">
-        <v>58.99</v>
+        <v>131.99</v>
       </c>
       <c r="C80" t="s">
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>269</v>
+        <v>60</v>
       </c>
       <c r="E80" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s">
-        <v>270</v>
+        <v>61</v>
       </c>
       <c r="G80" s="1">
-        <v>58.99</v>
+        <v>131.99</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>271</v>
+        <v>62</v>
       </c>
       <c r="B81" s="1">
-        <v>109.99</v>
+        <v>70.989999999999995</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>272</v>
+        <v>63</v>
       </c>
       <c r="E81" t="s">
-        <v>273</v>
+        <v>64</v>
       </c>
       <c r="F81" t="s">
-        <v>274</v>
-      </c>
-      <c r="G81" t="s">
-        <v>275</v>
+        <v>65</v>
+      </c>
+      <c r="G81" s="1">
+        <v>70.989999999999995</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>276</v>
+        <v>66</v>
       </c>
       <c r="B82" s="1">
-        <v>90.99</v>
+        <v>274.99</v>
       </c>
       <c r="C82" t="s">
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="F82" t="s">
-        <v>278</v>
+        <v>69</v>
       </c>
       <c r="G82" s="1">
-        <v>90.99</v>
+        <v>274.99</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>279</v>
+        <v>70</v>
       </c>
       <c r="B83" s="1">
-        <v>122.99</v>
+        <v>192.99</v>
       </c>
       <c r="C83" t="s">
         <v>8</v>
       </c>
       <c r="D83" t="s">
-        <v>280</v>
+        <v>71</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>46</v>
       </c>
       <c r="F83" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="G83" s="1">
-        <v>122.99</v>
+        <v>192.99</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>283</v>
+        <v>73</v>
       </c>
       <c r="B84" s="1">
-        <v>199.99</v>
+        <v>192.99</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>284</v>
+        <v>74</v>
       </c>
       <c r="E84" t="s">
-        <v>273</v>
+        <v>75</v>
       </c>
       <c r="F84" t="s">
-        <v>285</v>
-      </c>
-      <c r="G84" t="s">
-        <v>286</v>
+        <v>76</v>
+      </c>
+      <c r="G84" s="1">
+        <v>192.99</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>287</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1">
-        <v>182.99</v>
+        <v>293.99</v>
       </c>
       <c r="C85" t="s">
         <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>78</v>
       </c>
       <c r="E85" t="s">
-        <v>289</v>
+        <v>79</v>
       </c>
       <c r="F85" t="s">
-        <v>290</v>
+        <v>80</v>
       </c>
       <c r="G85" s="1">
-        <v>182.99</v>
+        <v>293.99</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="B86" s="1">
-        <v>100.99</v>
+        <v>293.99</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>82</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="F86" t="s">
-        <v>294</v>
+        <v>83</v>
       </c>
       <c r="G86" s="1">
-        <v>100.99</v>
+        <v>293.99</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>295</v>
+        <v>84</v>
       </c>
       <c r="B87" s="1">
-        <v>109.99</v>
+        <v>63.99</v>
       </c>
       <c r="C87" t="s">
         <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>296</v>
+        <v>85</v>
       </c>
       <c r="E87" t="s">
-        <v>293</v>
+        <v>86</v>
       </c>
       <c r="F87" t="s">
-        <v>297</v>
+        <v>87</v>
       </c>
       <c r="G87" s="1">
-        <v>109.99</v>
+        <v>63.99</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>298</v>
+        <v>88</v>
       </c>
       <c r="B88" s="1">
-        <v>50.99</v>
+        <v>98.99</v>
       </c>
       <c r="C88" t="s">
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>299</v>
+        <v>89</v>
       </c>
       <c r="E88" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="F88" t="s">
-        <v>300</v>
+        <v>91</v>
       </c>
       <c r="G88" s="1">
-        <v>50.99</v>
+        <v>98.99</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>301</v>
+        <v>92</v>
       </c>
       <c r="B89" s="1">
-        <v>87.99</v>
+        <v>112.99</v>
       </c>
       <c r="C89" t="s">
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>302</v>
+        <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>293</v>
+        <v>94</v>
       </c>
       <c r="F89" t="s">
-        <v>303</v>
+        <v>95</v>
       </c>
       <c r="G89" s="1">
-        <v>87.99</v>
+        <v>112.99</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>304</v>
+        <v>96</v>
       </c>
       <c r="B90" s="1">
-        <v>71.989999999999995</v>
+        <v>227.99</v>
       </c>
       <c r="C90" t="s">
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F90" t="s">
-        <v>306</v>
+        <v>99</v>
       </c>
       <c r="G90" s="1">
-        <v>71.989999999999995</v>
+        <v>227.99</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>307</v>
+        <v>100</v>
       </c>
       <c r="B91" s="1">
-        <v>58.99</v>
+        <v>114.99</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="E91" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F91" t="s">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="G91" s="1">
-        <v>58.99</v>
+        <v>114.99</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>310</v>
+        <v>103</v>
       </c>
       <c r="B92" s="1">
-        <v>85.99</v>
+        <v>91.99</v>
       </c>
       <c r="C92" t="s">
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>311</v>
+        <v>104</v>
       </c>
       <c r="E92" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F92" t="s">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c r="G92" s="1">
-        <v>85.99</v>
+        <v>91.99</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>313</v>
+        <v>107</v>
       </c>
       <c r="B93" s="1">
-        <v>64.989999999999995</v>
+        <v>62.99</v>
       </c>
       <c r="C93" t="s">
         <v>8</v>
       </c>
       <c r="D93" t="s">
-        <v>314</v>
+        <v>108</v>
       </c>
       <c r="E93" t="s">
-        <v>315</v>
+        <v>109</v>
       </c>
       <c r="F93" t="s">
-        <v>316</v>
+        <v>110</v>
       </c>
       <c r="G93" s="1">
-        <v>64.989999999999995</v>
+        <v>62.99</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>317</v>
+        <v>111</v>
       </c>
       <c r="B94" s="1">
-        <v>109.99</v>
+        <v>83.99</v>
       </c>
       <c r="C94" t="s">
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>318</v>
+        <v>112</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F94" t="s">
-        <v>319</v>
+        <v>113</v>
       </c>
       <c r="G94" s="1">
-        <v>109.99</v>
+        <v>83.99</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>320</v>
+        <v>114</v>
       </c>
       <c r="B95" s="1">
         <v>56.99</v>
@@ -3885,13 +4567,13 @@
         <v>8</v>
       </c>
       <c r="D95" t="s">
-        <v>321</v>
+        <v>115</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="F95" t="s">
-        <v>322</v>
+        <v>116</v>
       </c>
       <c r="G95" s="1">
         <v>56.99</v>
@@ -3899,765 +4581,2238 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>323</v>
+        <v>117</v>
       </c>
       <c r="B96" s="1">
-        <v>56.99</v>
+        <v>83.99</v>
       </c>
       <c r="C96" t="s">
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>324</v>
+        <v>118</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="F96" t="s">
-        <v>325</v>
+        <v>119</v>
       </c>
       <c r="G96" s="1">
-        <v>56.99</v>
+        <v>83.99</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>326</v>
+        <v>120</v>
       </c>
       <c r="B97" s="1">
-        <v>99.99</v>
+        <v>174.99</v>
       </c>
       <c r="C97" t="s">
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>327</v>
+        <v>121</v>
       </c>
       <c r="E97" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>328</v>
+        <v>122</v>
       </c>
       <c r="G97" s="1">
-        <v>99.99</v>
+        <v>174.99</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>329</v>
+        <v>123</v>
       </c>
       <c r="B98" s="1">
-        <v>68.989999999999995</v>
+        <v>83.99</v>
       </c>
       <c r="C98" t="s">
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>330</v>
+        <v>124</v>
       </c>
       <c r="E98" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F98" t="s">
-        <v>331</v>
+        <v>126</v>
       </c>
       <c r="G98" s="1">
-        <v>68.989999999999995</v>
+        <v>83.99</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>332</v>
+        <v>127</v>
       </c>
       <c r="B99" s="1">
-        <v>96.99</v>
+        <v>157.99</v>
       </c>
       <c r="C99" t="s">
         <v>8</v>
       </c>
       <c r="D99" t="s">
-        <v>333</v>
+        <v>128</v>
       </c>
       <c r="E99" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F99" t="s">
-        <v>334</v>
+        <v>130</v>
       </c>
       <c r="G99" s="1">
-        <v>96.99</v>
+        <v>157.99</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>335</v>
+        <v>131</v>
       </c>
       <c r="B100" s="1">
-        <v>117.99</v>
+        <v>89.99</v>
       </c>
       <c r="C100" t="s">
         <v>8</v>
       </c>
       <c r="D100" t="s">
-        <v>336</v>
+        <v>132</v>
       </c>
       <c r="E100" t="s">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>337</v>
+        <v>133</v>
       </c>
       <c r="G100" s="1">
-        <v>117.99</v>
+        <v>89.99</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>338</v>
+        <v>134</v>
       </c>
       <c r="B101" s="1">
-        <v>226.99</v>
+        <v>96.99</v>
       </c>
       <c r="C101" t="s">
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>339</v>
+        <v>135</v>
       </c>
       <c r="E101" t="s">
-        <v>340</v>
+        <v>129</v>
       </c>
       <c r="F101" t="s">
-        <v>341</v>
+        <v>136</v>
       </c>
       <c r="G101" s="1">
-        <v>226.99</v>
+        <v>96.99</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>342</v>
+        <v>137</v>
       </c>
       <c r="B102" s="1">
-        <v>100.99</v>
+        <v>139.99</v>
       </c>
       <c r="C102" t="s">
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>343</v>
+        <v>138</v>
       </c>
       <c r="E102" t="s">
-        <v>344</v>
+        <v>139</v>
       </c>
       <c r="F102" t="s">
-        <v>345</v>
-      </c>
-      <c r="G102" t="s">
-        <v>346</v>
+        <v>140</v>
+      </c>
+      <c r="G102" s="1">
+        <v>139.99</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>347</v>
+        <v>141</v>
       </c>
       <c r="B103" s="1">
-        <v>119.99</v>
+        <v>145.99</v>
       </c>
       <c r="C103" t="s">
         <v>8</v>
       </c>
       <c r="D103" t="s">
-        <v>348</v>
+        <v>142</v>
       </c>
       <c r="E103" t="s">
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="F103" t="s">
-        <v>349</v>
-      </c>
-      <c r="G103" t="s">
-        <v>350</v>
+        <v>144</v>
+      </c>
+      <c r="G103" s="1">
+        <v>145.99</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>351</v>
+        <v>145</v>
       </c>
       <c r="B104" s="1">
-        <v>131.99</v>
+        <v>120.99</v>
       </c>
       <c r="C104" t="s">
         <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>352</v>
+        <v>146</v>
       </c>
       <c r="E104" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="F104" t="s">
-        <v>353</v>
-      </c>
-      <c r="G104" t="s">
-        <v>354</v>
+        <v>147</v>
+      </c>
+      <c r="G104" s="1">
+        <v>120.99</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>355</v>
+        <v>148</v>
       </c>
       <c r="B105" s="1">
-        <v>134.99</v>
+        <v>169.99</v>
       </c>
       <c r="C105" t="s">
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>356</v>
+        <v>149</v>
       </c>
       <c r="E105" t="s">
-        <v>357</v>
+        <v>109</v>
       </c>
       <c r="F105" t="s">
-        <v>358</v>
-      </c>
-      <c r="G105" t="s">
-        <v>359</v>
+        <v>150</v>
+      </c>
+      <c r="G105" s="1">
+        <v>169.99</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>360</v>
+        <v>151</v>
       </c>
       <c r="B106" s="1">
-        <v>100.99</v>
+        <v>134.99</v>
       </c>
       <c r="C106" t="s">
         <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>361</v>
+        <v>152</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F106" t="s">
-        <v>362</v>
-      </c>
-      <c r="G106" t="s">
-        <v>363</v>
+        <v>153</v>
+      </c>
+      <c r="G106" s="1">
+        <v>134.99</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>364</v>
+        <v>154</v>
       </c>
       <c r="B107" s="1">
-        <v>119.99</v>
+        <v>58.99</v>
       </c>
       <c r="C107" t="s">
         <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>365</v>
+        <v>155</v>
       </c>
       <c r="E107" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F107" t="s">
-        <v>366</v>
+        <v>156</v>
       </c>
       <c r="G107" s="1">
-        <v>119.99</v>
+        <v>58.99</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>367</v>
+        <v>157</v>
       </c>
       <c r="B108" s="1">
-        <v>114.99</v>
+        <v>70.989999999999995</v>
       </c>
       <c r="C108" t="s">
         <v>8</v>
       </c>
       <c r="D108" t="s">
-        <v>368</v>
+        <v>158</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="F108" t="s">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="G108" s="1">
-        <v>114.99</v>
+        <v>70.989999999999995</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>370</v>
+        <v>160</v>
       </c>
       <c r="B109" s="1">
-        <v>193.99</v>
+        <v>63.99</v>
       </c>
       <c r="C109" t="s">
         <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>371</v>
+        <v>161</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="F109" t="s">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="G109" s="1">
-        <v>193.99</v>
+        <v>63.99</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>373</v>
+        <v>164</v>
       </c>
       <c r="B110" s="1">
-        <v>193.99</v>
+        <v>79.989999999999995</v>
       </c>
       <c r="C110" t="s">
         <v>8</v>
       </c>
       <c r="D110" t="s">
-        <v>374</v>
+        <v>165</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="F110" t="s">
-        <v>375</v>
+        <v>166</v>
       </c>
       <c r="G110" s="1">
-        <v>193.99</v>
+        <v>79.989999999999995</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>376</v>
+        <v>167</v>
       </c>
       <c r="B111" s="1">
-        <v>209.99</v>
+        <v>97.99</v>
       </c>
       <c r="C111" t="s">
         <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>377</v>
+        <v>168</v>
       </c>
       <c r="E111" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F111" t="s">
-        <v>378</v>
+        <v>169</v>
       </c>
       <c r="G111" s="1">
-        <v>209.99</v>
+        <v>97.99</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>379</v>
+        <v>170</v>
       </c>
       <c r="B112" s="1">
-        <v>193.99</v>
+        <v>83.99</v>
       </c>
       <c r="C112" t="s">
         <v>8</v>
       </c>
       <c r="D112" t="s">
-        <v>380</v>
+        <v>171</v>
       </c>
       <c r="E112" t="s">
-        <v>30</v>
+        <v>109</v>
       </c>
       <c r="F112" t="s">
-        <v>381</v>
+        <v>172</v>
       </c>
       <c r="G112" s="1">
-        <v>193.99</v>
+        <v>83.99</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>382</v>
+        <v>173</v>
       </c>
       <c r="B113" s="1">
-        <v>109.99</v>
+        <v>120.99</v>
       </c>
       <c r="C113" t="s">
         <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>383</v>
+        <v>174</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="F113" t="s">
-        <v>384</v>
+        <v>175</v>
       </c>
       <c r="G113" s="1">
-        <v>109.99</v>
+        <v>120.99</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>385</v>
+        <v>176</v>
       </c>
       <c r="B114" s="1">
-        <v>109.99</v>
+        <v>84.99</v>
       </c>
       <c r="C114" t="s">
         <v>8</v>
       </c>
       <c r="D114" t="s">
-        <v>386</v>
+        <v>177</v>
       </c>
       <c r="E114" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>387</v>
+        <v>178</v>
       </c>
       <c r="G114" s="1">
-        <v>109.99</v>
+        <v>84.99</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>388</v>
+        <v>179</v>
       </c>
       <c r="B115" s="1">
-        <v>109.99</v>
+        <v>75.989999999999995</v>
       </c>
       <c r="C115" t="s">
         <v>8</v>
       </c>
       <c r="D115" t="s">
-        <v>389</v>
+        <v>180</v>
       </c>
       <c r="E115" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
-        <v>390</v>
+        <v>181</v>
       </c>
       <c r="G115" s="1">
-        <v>109.99</v>
+        <v>75.989999999999995</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>391</v>
+        <v>182</v>
       </c>
       <c r="B116" s="1">
-        <v>75.989999999999995</v>
+        <v>83.99</v>
       </c>
       <c r="C116" t="s">
         <v>8</v>
       </c>
       <c r="D116" t="s">
-        <v>392</v>
+        <v>183</v>
       </c>
       <c r="E116" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="F116" t="s">
-        <v>393</v>
+        <v>184</v>
       </c>
       <c r="G116" s="1">
-        <v>75.989999999999995</v>
+        <v>83.99</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>394</v>
+        <v>185</v>
       </c>
       <c r="B117" s="1">
-        <v>80.989999999999995</v>
+        <v>159.99</v>
       </c>
       <c r="C117" t="s">
         <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>395</v>
+        <v>186</v>
       </c>
       <c r="E117" t="s">
-        <v>396</v>
+        <v>109</v>
       </c>
       <c r="F117" t="s">
-        <v>397</v>
+        <v>187</v>
       </c>
       <c r="G117" s="1">
-        <v>80.989999999999995</v>
+        <v>159.99</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>398</v>
+        <v>188</v>
       </c>
       <c r="B118" s="1">
-        <v>93.99</v>
+        <v>99.99</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>399</v>
+        <v>189</v>
       </c>
       <c r="E118" t="s">
-        <v>400</v>
+        <v>109</v>
       </c>
       <c r="F118" t="s">
-        <v>401</v>
+        <v>190</v>
       </c>
       <c r="G118" s="1">
-        <v>93.99</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>402</v>
+        <v>191</v>
       </c>
       <c r="B119" s="1">
-        <v>135.99</v>
+        <v>47.99</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>403</v>
+        <v>192</v>
       </c>
       <c r="E119" t="s">
-        <v>404</v>
+        <v>86</v>
       </c>
       <c r="F119" t="s">
-        <v>405</v>
+        <v>193</v>
       </c>
       <c r="G119" s="1">
-        <v>135.99</v>
+        <v>47.99</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>406</v>
+        <v>194</v>
       </c>
       <c r="B120" s="1">
-        <v>159.99</v>
+        <v>47.99</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
       </c>
       <c r="D120" t="s">
-        <v>407</v>
+        <v>195</v>
       </c>
       <c r="E120" t="s">
-        <v>396</v>
+        <v>109</v>
       </c>
       <c r="F120" t="s">
-        <v>408</v>
+        <v>196</v>
       </c>
       <c r="G120" s="1">
-        <v>159.99</v>
+        <v>47.99</v>
       </c>
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>409</v>
+        <v>197</v>
       </c>
       <c r="B121" s="1">
-        <v>91.99</v>
+        <v>23.99</v>
       </c>
       <c r="C121" t="s">
         <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>410</v>
+        <v>198</v>
       </c>
       <c r="E121" t="s">
-        <v>411</v>
+        <v>109</v>
       </c>
       <c r="F121" t="s">
-        <v>412</v>
+        <v>199</v>
       </c>
       <c r="G121" s="1">
-        <v>91.99</v>
+        <v>23.99</v>
       </c>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>413</v>
+        <v>200</v>
       </c>
       <c r="B122" s="1">
-        <v>114.99</v>
+        <v>24.99</v>
       </c>
       <c r="C122" t="s">
         <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>414</v>
+        <v>201</v>
       </c>
       <c r="E122" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="F122" t="s">
-        <v>415</v>
+        <v>202</v>
       </c>
       <c r="G122" s="1">
-        <v>114.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>416</v>
+        <v>203</v>
       </c>
       <c r="B123" s="1">
-        <v>98.99</v>
+        <v>28.99</v>
       </c>
       <c r="C123" t="s">
         <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>417</v>
+        <v>204</v>
       </c>
       <c r="E123" t="s">
-        <v>281</v>
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>418</v>
+        <v>205</v>
       </c>
       <c r="G123" s="1">
-        <v>98.99</v>
+        <v>28.99</v>
       </c>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>419</v>
+        <v>206</v>
       </c>
       <c r="B124" s="1">
-        <v>98.99</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="C124" t="s">
         <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>420</v>
+        <v>207</v>
       </c>
       <c r="E124" t="s">
-        <v>281</v>
+        <v>109</v>
       </c>
       <c r="F124" t="s">
-        <v>421</v>
+        <v>208</v>
       </c>
       <c r="G124" s="1">
-        <v>98.99</v>
+        <v>68.989999999999995</v>
       </c>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>422</v>
+        <v>209</v>
       </c>
       <c r="B125" s="1">
-        <v>151.99</v>
+        <v>41.99</v>
       </c>
       <c r="C125" t="s">
         <v>8</v>
       </c>
       <c r="D125" t="s">
-        <v>423</v>
+        <v>210</v>
       </c>
       <c r="E125" t="s">
-        <v>139</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>424</v>
+        <v>211</v>
       </c>
       <c r="G125" s="1">
-        <v>151.99</v>
+        <v>41.99</v>
       </c>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>425</v>
+        <v>212</v>
       </c>
       <c r="B126" s="1">
-        <v>49.99</v>
+        <v>31.99</v>
       </c>
       <c r="C126" t="s">
         <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>426</v>
+        <v>213</v>
       </c>
       <c r="E126" t="s">
-        <v>427</v>
+        <v>162</v>
       </c>
       <c r="F126" t="s">
-        <v>428</v>
+        <v>214</v>
       </c>
       <c r="G126" s="1">
-        <v>49.99</v>
+        <v>31.99</v>
       </c>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>429</v>
+        <v>215</v>
       </c>
       <c r="B127" s="1">
-        <v>168.99</v>
+        <v>97.99</v>
       </c>
       <c r="C127" t="s">
         <v>8</v>
       </c>
       <c r="D127" t="s">
-        <v>430</v>
+        <v>216</v>
       </c>
       <c r="E127" t="s">
-        <v>431</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>432</v>
+        <v>217</v>
       </c>
       <c r="G127" s="1">
-        <v>168.99</v>
+        <v>97.99</v>
       </c>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" s="1">
+        <v>100.99</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>219</v>
+      </c>
+      <c r="E128" t="s">
+        <v>220</v>
+      </c>
+      <c r="F128" t="s">
+        <v>221</v>
+      </c>
+      <c r="G128" s="1">
+        <v>100.99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>222</v>
+      </c>
+      <c r="B129" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>223</v>
+      </c>
+      <c r="E129" t="s">
+        <v>220</v>
+      </c>
+      <c r="F129" t="s">
+        <v>224</v>
+      </c>
+      <c r="G129" s="1">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="1">
+        <v>57.99</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" t="s">
+        <v>226</v>
+      </c>
+      <c r="E130" t="s">
+        <v>220</v>
+      </c>
+      <c r="F130" t="s">
+        <v>227</v>
+      </c>
+      <c r="G130" s="1">
+        <v>57.99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>228</v>
+      </c>
+      <c r="B131" s="1">
+        <v>41.99</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>229</v>
+      </c>
+      <c r="E131" t="s">
+        <v>220</v>
+      </c>
+      <c r="F131" t="s">
+        <v>230</v>
+      </c>
+      <c r="G131" s="1">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>231</v>
+      </c>
+      <c r="B132" s="1">
+        <v>41.99</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>232</v>
+      </c>
+      <c r="E132" t="s">
+        <v>220</v>
+      </c>
+      <c r="F132" t="s">
+        <v>233</v>
+      </c>
+      <c r="G132" s="1">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>235</v>
+      </c>
+      <c r="E133" t="s">
+        <v>139</v>
+      </c>
+      <c r="F133" t="s">
+        <v>236</v>
+      </c>
+      <c r="G133" s="1">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>237</v>
+      </c>
+      <c r="B134" s="1">
+        <v>16.989999999999998</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134" t="s">
+        <v>238</v>
+      </c>
+      <c r="E134" t="s">
+        <v>220</v>
+      </c>
+      <c r="F134" t="s">
+        <v>239</v>
+      </c>
+      <c r="G134" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>241</v>
+      </c>
+      <c r="B135" s="1">
+        <v>111.99</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" t="s">
+        <v>242</v>
+      </c>
+      <c r="E135" t="s">
+        <v>220</v>
+      </c>
+      <c r="F135" t="s">
+        <v>243</v>
+      </c>
+      <c r="G135" s="1">
+        <v>111.99</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>244</v>
+      </c>
+      <c r="B136" s="1">
+        <v>105.99</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>245</v>
+      </c>
+      <c r="E136" t="s">
+        <v>220</v>
+      </c>
+      <c r="F136" t="s">
+        <v>246</v>
+      </c>
+      <c r="G136" s="1">
+        <v>105.99</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>247</v>
+      </c>
+      <c r="B137" s="1">
+        <v>105.99</v>
+      </c>
+      <c r="C137" t="s">
+        <v>8</v>
+      </c>
+      <c r="D137" t="s">
+        <v>248</v>
+      </c>
+      <c r="E137" t="s">
+        <v>220</v>
+      </c>
+      <c r="F137" t="s">
+        <v>249</v>
+      </c>
+      <c r="G137" s="1">
+        <v>105.99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>250</v>
+      </c>
+      <c r="B138" s="1">
+        <v>85.99</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>251</v>
+      </c>
+      <c r="E138" t="s">
+        <v>220</v>
+      </c>
+      <c r="F138" t="s">
+        <v>252</v>
+      </c>
+      <c r="G138" s="1">
+        <v>85.99</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>253</v>
+      </c>
+      <c r="B139" s="1">
+        <v>85.99</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>254</v>
+      </c>
+      <c r="E139" t="s">
+        <v>220</v>
+      </c>
+      <c r="F139" t="s">
+        <v>255</v>
+      </c>
+      <c r="G139" s="1">
+        <v>85.99</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>256</v>
+      </c>
+      <c r="B140" s="1">
+        <v>82.99</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140" t="s">
+        <v>257</v>
+      </c>
+      <c r="E140" t="s">
+        <v>220</v>
+      </c>
+      <c r="F140" t="s">
+        <v>258</v>
+      </c>
+      <c r="G140" s="1">
+        <v>82.99</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>259</v>
+      </c>
+      <c r="B141" s="1">
+        <v>141.99</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>260</v>
+      </c>
+      <c r="E141" t="s">
+        <v>220</v>
+      </c>
+      <c r="F141" t="s">
+        <v>261</v>
+      </c>
+      <c r="G141" s="1">
+        <v>141.99</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>262</v>
+      </c>
+      <c r="B142" s="1">
+        <v>152.99</v>
+      </c>
+      <c r="C142" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" t="s">
+        <v>263</v>
+      </c>
+      <c r="E142" t="s">
+        <v>220</v>
+      </c>
+      <c r="F142" t="s">
+        <v>264</v>
+      </c>
+      <c r="G142" s="1">
+        <v>152.99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>265</v>
+      </c>
+      <c r="B143" s="1">
+        <v>149.99</v>
+      </c>
+      <c r="C143" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" t="s">
+        <v>266</v>
+      </c>
+      <c r="E143" t="s">
+        <v>220</v>
+      </c>
+      <c r="F143" t="s">
+        <v>267</v>
+      </c>
+      <c r="G143" s="1">
+        <v>149.99</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>268</v>
+      </c>
+      <c r="B144" s="1">
+        <v>58.99</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>269</v>
+      </c>
+      <c r="E144" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" t="s">
+        <v>270</v>
+      </c>
+      <c r="G144" s="1">
+        <v>58.99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>271</v>
+      </c>
+      <c r="B145" s="1">
+        <v>109.99</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>272</v>
+      </c>
+      <c r="E145" t="s">
+        <v>273</v>
+      </c>
+      <c r="F145" t="s">
+        <v>274</v>
+      </c>
+      <c r="G145" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>276</v>
+      </c>
+      <c r="B146" s="1">
+        <v>90.99</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>277</v>
+      </c>
+      <c r="E146" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" t="s">
+        <v>278</v>
+      </c>
+      <c r="G146" s="1">
+        <v>90.99</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>279</v>
+      </c>
+      <c r="B147" s="1">
+        <v>122.99</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>280</v>
+      </c>
+      <c r="E147" t="s">
+        <v>281</v>
+      </c>
+      <c r="F147" t="s">
+        <v>282</v>
+      </c>
+      <c r="G147" s="1">
+        <v>122.99</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>283</v>
+      </c>
+      <c r="B148" s="1">
+        <v>199.99</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>284</v>
+      </c>
+      <c r="E148" t="s">
+        <v>273</v>
+      </c>
+      <c r="F148" t="s">
+        <v>285</v>
+      </c>
+      <c r="G148" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>287</v>
+      </c>
+      <c r="B149" s="1">
+        <v>182.99</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>288</v>
+      </c>
+      <c r="E149" t="s">
+        <v>289</v>
+      </c>
+      <c r="F149" t="s">
+        <v>290</v>
+      </c>
+      <c r="G149" s="1">
+        <v>182.99</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>291</v>
+      </c>
+      <c r="B150" s="1">
+        <v>100.99</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>292</v>
+      </c>
+      <c r="E150" t="s">
+        <v>293</v>
+      </c>
+      <c r="F150" t="s">
+        <v>294</v>
+      </c>
+      <c r="G150" s="1">
+        <v>100.99</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" s="1">
+        <v>109.99</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>296</v>
+      </c>
+      <c r="E151" t="s">
+        <v>293</v>
+      </c>
+      <c r="F151" t="s">
+        <v>297</v>
+      </c>
+      <c r="G151" s="1">
+        <v>109.99</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" s="1">
+        <v>50.99</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>299</v>
+      </c>
+      <c r="E152" t="s">
+        <v>64</v>
+      </c>
+      <c r="F152" t="s">
+        <v>300</v>
+      </c>
+      <c r="G152" s="1">
+        <v>50.99</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>301</v>
+      </c>
+      <c r="B153" s="1">
+        <v>87.99</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>302</v>
+      </c>
+      <c r="E153" t="s">
+        <v>293</v>
+      </c>
+      <c r="F153" t="s">
+        <v>303</v>
+      </c>
+      <c r="G153" s="1">
+        <v>87.99</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>304</v>
+      </c>
+      <c r="B154" s="1">
+        <v>71.989999999999995</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>305</v>
+      </c>
+      <c r="E154" t="s">
+        <v>109</v>
+      </c>
+      <c r="F154" t="s">
+        <v>306</v>
+      </c>
+      <c r="G154" s="1">
+        <v>71.989999999999995</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" s="1">
+        <v>58.99</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>308</v>
+      </c>
+      <c r="E155" t="s">
+        <v>30</v>
+      </c>
+      <c r="F155" t="s">
+        <v>309</v>
+      </c>
+      <c r="G155" s="1">
+        <v>58.99</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>310</v>
+      </c>
+      <c r="B156" s="1">
+        <v>85.99</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>311</v>
+      </c>
+      <c r="E156" t="s">
+        <v>109</v>
+      </c>
+      <c r="F156" t="s">
+        <v>312</v>
+      </c>
+      <c r="G156" s="1">
+        <v>85.99</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>313</v>
+      </c>
+      <c r="B157" s="1">
+        <v>64.989999999999995</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>314</v>
+      </c>
+      <c r="E157" t="s">
+        <v>315</v>
+      </c>
+      <c r="F157" t="s">
+        <v>316</v>
+      </c>
+      <c r="G157" s="1">
+        <v>64.989999999999995</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" s="1">
+        <v>109.99</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>318</v>
+      </c>
+      <c r="E158" t="s">
+        <v>30</v>
+      </c>
+      <c r="F158" t="s">
+        <v>319</v>
+      </c>
+      <c r="G158" s="1">
+        <v>109.99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>320</v>
+      </c>
+      <c r="B159" s="1">
+        <v>56.99</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>321</v>
+      </c>
+      <c r="E159" t="s">
+        <v>34</v>
+      </c>
+      <c r="F159" t="s">
+        <v>322</v>
+      </c>
+      <c r="G159" s="1">
+        <v>56.99</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>323</v>
+      </c>
+      <c r="B160" s="1">
+        <v>56.99</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>324</v>
+      </c>
+      <c r="E160" t="s">
+        <v>34</v>
+      </c>
+      <c r="F160" t="s">
+        <v>325</v>
+      </c>
+      <c r="G160" s="1">
+        <v>56.99</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>326</v>
+      </c>
+      <c r="B161" s="1">
+        <v>99.99</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>327</v>
+      </c>
+      <c r="E161" t="s">
+        <v>139</v>
+      </c>
+      <c r="F161" t="s">
+        <v>328</v>
+      </c>
+      <c r="G161" s="1">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>329</v>
+      </c>
+      <c r="B162" s="1">
+        <v>68.989999999999995</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>330</v>
+      </c>
+      <c r="E162" t="s">
+        <v>109</v>
+      </c>
+      <c r="F162" t="s">
+        <v>331</v>
+      </c>
+      <c r="G162" s="1">
+        <v>68.989999999999995</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>332</v>
+      </c>
+      <c r="B163" s="1">
+        <v>96.99</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>333</v>
+      </c>
+      <c r="E163" t="s">
+        <v>139</v>
+      </c>
+      <c r="F163" t="s">
+        <v>334</v>
+      </c>
+      <c r="G163" s="1">
+        <v>96.99</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>335</v>
+      </c>
+      <c r="B164" s="1">
+        <v>117.99</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>336</v>
+      </c>
+      <c r="E164" t="s">
+        <v>315</v>
+      </c>
+      <c r="F164" t="s">
+        <v>337</v>
+      </c>
+      <c r="G164" s="1">
+        <v>117.99</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>338</v>
+      </c>
+      <c r="B165" s="1">
+        <v>226.99</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>339</v>
+      </c>
+      <c r="E165" t="s">
+        <v>340</v>
+      </c>
+      <c r="F165" t="s">
+        <v>341</v>
+      </c>
+      <c r="G165" s="1">
+        <v>226.99</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>342</v>
+      </c>
+      <c r="B166" s="1">
+        <v>100.99</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>343</v>
+      </c>
+      <c r="E166" t="s">
+        <v>344</v>
+      </c>
+      <c r="F166" t="s">
+        <v>345</v>
+      </c>
+      <c r="G166" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>347</v>
+      </c>
+      <c r="B167" s="1">
+        <v>119.99</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>348</v>
+      </c>
+      <c r="E167" t="s">
+        <v>57</v>
+      </c>
+      <c r="F167" t="s">
+        <v>349</v>
+      </c>
+      <c r="G167" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>351</v>
+      </c>
+      <c r="B168" s="1">
+        <v>131.99</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" t="s">
+        <v>352</v>
+      </c>
+      <c r="E168" t="s">
+        <v>98</v>
+      </c>
+      <c r="F168" t="s">
+        <v>353</v>
+      </c>
+      <c r="G168" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>355</v>
+      </c>
+      <c r="B169" s="1">
+        <v>134.99</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>356</v>
+      </c>
+      <c r="E169" t="s">
+        <v>357</v>
+      </c>
+      <c r="F169" t="s">
+        <v>358</v>
+      </c>
+      <c r="G169" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>360</v>
+      </c>
+      <c r="B170" s="1">
+        <v>100.99</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>361</v>
+      </c>
+      <c r="E170" t="s">
+        <v>98</v>
+      </c>
+      <c r="F170" t="s">
+        <v>362</v>
+      </c>
+      <c r="G170" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>364</v>
+      </c>
+      <c r="B171" s="1">
+        <v>119.99</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>365</v>
+      </c>
+      <c r="E171" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171" t="s">
+        <v>366</v>
+      </c>
+      <c r="G171" s="1">
+        <v>119.99</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>367</v>
+      </c>
+      <c r="B172" s="1">
+        <v>114.99</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>368</v>
+      </c>
+      <c r="E172" t="s">
+        <v>98</v>
+      </c>
+      <c r="F172" t="s">
+        <v>369</v>
+      </c>
+      <c r="G172" s="1">
+        <v>114.99</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>370</v>
+      </c>
+      <c r="B173" s="1">
+        <v>193.99</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>371</v>
+      </c>
+      <c r="E173" t="s">
+        <v>30</v>
+      </c>
+      <c r="F173" t="s">
+        <v>372</v>
+      </c>
+      <c r="G173" s="1">
+        <v>193.99</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>373</v>
+      </c>
+      <c r="B174" s="1">
+        <v>193.99</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>374</v>
+      </c>
+      <c r="E174" t="s">
+        <v>38</v>
+      </c>
+      <c r="F174" t="s">
+        <v>375</v>
+      </c>
+      <c r="G174" s="1">
+        <v>193.99</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>376</v>
+      </c>
+      <c r="B175" s="1">
+        <v>209.99</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>377</v>
+      </c>
+      <c r="E175" t="s">
+        <v>98</v>
+      </c>
+      <c r="F175" t="s">
+        <v>378</v>
+      </c>
+      <c r="G175" s="1">
+        <v>209.99</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>379</v>
+      </c>
+      <c r="B176" s="1">
+        <v>193.99</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>380</v>
+      </c>
+      <c r="E176" t="s">
+        <v>30</v>
+      </c>
+      <c r="F176" t="s">
+        <v>381</v>
+      </c>
+      <c r="G176" s="1">
+        <v>193.99</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>382</v>
+      </c>
+      <c r="B177" s="1">
+        <v>109.99</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>383</v>
+      </c>
+      <c r="E177" t="s">
+        <v>109</v>
+      </c>
+      <c r="F177" t="s">
+        <v>384</v>
+      </c>
+      <c r="G177" s="1">
+        <v>109.99</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>385</v>
+      </c>
+      <c r="B178" s="1">
+        <v>109.99</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>386</v>
+      </c>
+      <c r="E178" t="s">
+        <v>109</v>
+      </c>
+      <c r="F178" t="s">
+        <v>387</v>
+      </c>
+      <c r="G178" s="1">
+        <v>109.99</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>388</v>
+      </c>
+      <c r="B179" s="1">
+        <v>109.99</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>389</v>
+      </c>
+      <c r="E179" t="s">
+        <v>109</v>
+      </c>
+      <c r="F179" t="s">
+        <v>390</v>
+      </c>
+      <c r="G179" s="1">
+        <v>109.99</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>391</v>
+      </c>
+      <c r="B180" s="1">
+        <v>75.989999999999995</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>392</v>
+      </c>
+      <c r="E180" t="s">
+        <v>162</v>
+      </c>
+      <c r="F180" t="s">
+        <v>393</v>
+      </c>
+      <c r="G180" s="1">
+        <v>75.989999999999995</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>394</v>
+      </c>
+      <c r="B181" s="1">
+        <v>80.989999999999995</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>395</v>
+      </c>
+      <c r="E181" t="s">
+        <v>396</v>
+      </c>
+      <c r="F181" t="s">
+        <v>397</v>
+      </c>
+      <c r="G181" s="1">
+        <v>80.989999999999995</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>398</v>
+      </c>
+      <c r="B182" s="1">
+        <v>93.99</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>399</v>
+      </c>
+      <c r="E182" t="s">
+        <v>400</v>
+      </c>
+      <c r="F182" t="s">
+        <v>401</v>
+      </c>
+      <c r="G182" s="1">
+        <v>93.99</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>402</v>
+      </c>
+      <c r="B183" s="1">
+        <v>135.99</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>403</v>
+      </c>
+      <c r="E183" t="s">
+        <v>404</v>
+      </c>
+      <c r="F183" t="s">
+        <v>405</v>
+      </c>
+      <c r="G183" s="1">
+        <v>135.99</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>406</v>
+      </c>
+      <c r="B184" s="1">
+        <v>159.99</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>407</v>
+      </c>
+      <c r="E184" t="s">
+        <v>396</v>
+      </c>
+      <c r="F184" t="s">
+        <v>408</v>
+      </c>
+      <c r="G184" s="1">
+        <v>159.99</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>409</v>
+      </c>
+      <c r="B185" s="1">
+        <v>91.99</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>410</v>
+      </c>
+      <c r="E185" t="s">
+        <v>411</v>
+      </c>
+      <c r="F185" t="s">
+        <v>412</v>
+      </c>
+      <c r="G185" s="1">
+        <v>91.99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>413</v>
+      </c>
+      <c r="B186" s="1">
+        <v>114.99</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>414</v>
+      </c>
+      <c r="E186" t="s">
+        <v>281</v>
+      </c>
+      <c r="F186" t="s">
+        <v>415</v>
+      </c>
+      <c r="G186" s="1">
+        <v>114.99</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>416</v>
+      </c>
+      <c r="B187" s="1">
+        <v>98.99</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>417</v>
+      </c>
+      <c r="E187" t="s">
+        <v>281</v>
+      </c>
+      <c r="F187" t="s">
+        <v>418</v>
+      </c>
+      <c r="G187" s="1">
+        <v>98.99</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>419</v>
+      </c>
+      <c r="B188" s="1">
+        <v>98.99</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>420</v>
+      </c>
+      <c r="E188" t="s">
+        <v>281</v>
+      </c>
+      <c r="F188" t="s">
+        <v>421</v>
+      </c>
+      <c r="G188" s="1">
+        <v>98.99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>422</v>
+      </c>
+      <c r="B189" s="1">
+        <v>151.99</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>423</v>
+      </c>
+      <c r="E189" t="s">
+        <v>139</v>
+      </c>
+      <c r="F189" t="s">
+        <v>424</v>
+      </c>
+      <c r="G189" s="1">
+        <v>151.99</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>425</v>
+      </c>
+      <c r="B190" s="1">
+        <v>49.99</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>426</v>
+      </c>
+      <c r="E190" t="s">
+        <v>427</v>
+      </c>
+      <c r="F190" t="s">
+        <v>428</v>
+      </c>
+      <c r="G190" s="1">
+        <v>49.99</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>429</v>
+      </c>
+      <c r="B191" s="1">
+        <v>168.99</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>430</v>
+      </c>
+      <c r="E191" t="s">
+        <v>431</v>
+      </c>
+      <c r="F191" t="s">
+        <v>432</v>
+      </c>
+      <c r="G191" s="1">
+        <v>168.99</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
         <v>433</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B192" s="1">
         <v>166.99</v>
       </c>
-      <c r="C128" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
         <v>434</v>
       </c>
-      <c r="E128" t="s">
+      <c r="E192" t="s">
         <v>293</v>
       </c>
-      <c r="F128" t="s">
+      <c r="F192" t="s">
         <v>435</v>
       </c>
-      <c r="G128" s="1">
+      <c r="G192" s="1">
         <v>166.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
